--- a/Tutor Spreadsheet Template.xlsx
+++ b/Tutor Spreadsheet Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA58EAC0-E159-4F90-81FF-23DFC4D6DA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903C03B2-A84A-455C-9471-4BB2E00E7FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A2:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -587,12 +587,12 @@
         <v>72</v>
       </c>
       <c r="F9" s="3">
-        <f>SUM(C9:E9,F4:F8)</f>
-        <v>428</v>
+        <f>SUM(C9:E9)</f>
+        <v>214</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>142.66666666666666</v>
+        <v>71.333333333333329</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
